--- a/data-center-profit-management/result/opt/opt-runtime.xlsx
+++ b/data-center-profit-management/result/opt/opt-runtime.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +472,9 @@
       <c r="C5">
         <f>19*60+43</f>
         <v>1183</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
       </c>
       <c r="E5">
         <f>5*60+32</f>

--- a/data-center-profit-management/result/opt/opt-runtime.xlsx
+++ b/data-center-profit-management/result/opt/opt-runtime.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="change time slot" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>rate = 0.2</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>rate=1.2</t>
+  </si>
+  <si>
+    <t>rate =0.8</t>
+  </si>
+  <si>
+    <t>time slot =24</t>
   </si>
 </sst>
 </file>
@@ -375,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,16 +397,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>187</v>
       </c>
@@ -409,19 +418,22 @@
         <v>351</v>
       </c>
       <c r="C2">
+        <v>251</v>
+      </c>
+      <c r="D2">
         <f>2*60+54</f>
         <v>174</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>60+15</f>
         <v>75</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>8*60+54</f>
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>85</v>
       </c>
@@ -430,19 +442,23 @@
         <v>390</v>
       </c>
       <c r="C3">
+        <f>7*60+53</f>
+        <v>473</v>
+      </c>
+      <c r="D3">
         <f>4*60+34</f>
         <v>274</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>60*60+23</f>
         <v>3623</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>2*60+11</f>
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -450,19 +466,23 @@
         <v>48</v>
       </c>
       <c r="C4">
+        <f>60+1</f>
+        <v>61</v>
+      </c>
+      <c r="D4">
         <f>1*60+8</f>
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>39*60+40</f>
         <v>2380</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>4*60+29</f>
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,18 +490,18 @@
         <v>54</v>
       </c>
       <c r="C5">
+        <v>154</v>
+      </c>
+      <c r="D5">
         <f>19*60+43</f>
         <v>1183</v>
       </c>
-      <c r="D5">
-        <v>51</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <f>5*60+32</f>
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>58</v>
       </c>
@@ -489,11 +509,19 @@
         <v>43</v>
       </c>
       <c r="C6">
+        <f>2*60+31</f>
+        <v>151</v>
+      </c>
+      <c r="D6">
         <f>60+59</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>2+32/60</f>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -501,11 +529,15 @@
         <v>54</v>
       </c>
       <c r="C7">
+        <f>3*60+19</f>
+        <v>199</v>
+      </c>
+      <c r="D7">
         <f>29*60+6</f>
         <v>1746</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
@@ -513,12 +545,12 @@
         <f>420+4</f>
         <v>424</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>15*60+3</f>
         <v>903</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -526,24 +558,24 @@
         <f>300+45</f>
         <v>345</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>29*60+45</f>
         <v>1785</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
         <v>47</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>2*60+53</f>
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>234</v>
       </c>
@@ -551,12 +583,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f xml:space="preserve"> AVERAGE(A2:A12)</f>
         <v>62.272727272727273</v>
@@ -566,22 +598,30 @@
         <v>179.6</v>
       </c>
       <c r="C15">
-        <f>AVERAGE(C2:C10)</f>
+        <f>AVERAGE(C2:C7)</f>
+        <v>214.83333333333334</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D2:D10)</f>
         <v>713.88888888888891</v>
       </c>
       <c r="E15">
-        <f>AVERAGE(E2:E5)</f>
-        <v>316.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
+        <f>AVERAGE(E2:E4)</f>
+        <v>2026</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F2:F5)*60</f>
+        <v>18990</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -592,12 +632,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
